--- a/biology/Botanique/Cedrus_atlantica/Cedrus_atlantica.xlsx
+++ b/biology/Botanique/Cedrus_atlantica/Cedrus_atlantica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedrus libani subsp. atlantica · Cèdre de l'Atlas
-Le Cèdre de l'Atlas (Cedrus atlantica, synonyme Cedrus libani subsp. atlantica[1]) est une espèce d'arbres conifères de la famille des Pinaceae anciennement considérée comme une sous-espèce du cèdre du Liban. Il est originaire de l'Atlas, massif montagneux d'Afrique du Nord. Dans son aire naturelle, au Maroc et en Algérie, il est considéré comme en danger par l'UICN. Arbre majestueux, il a été planté dans de nombreux parcs.
+Le Cèdre de l'Atlas (Cedrus atlantica, synonyme Cedrus libani subsp. atlantica) est une espèce d'arbres conifères de la famille des Pinaceae anciennement considérée comme une sous-espèce du cèdre du Liban. Il est originaire de l'Atlas, massif montagneux d'Afrique du Nord. Dans son aire naturelle, au Maroc et en Algérie, il est considéré comme en danger par l'UICN. Arbre majestueux, il a été planté dans de nombreux parcs.
 </t>
         </is>
       </c>
@@ -512,15 +524,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aussi appelé cèdre bleu ou cèdre argenté, le cèdre de l'Atlas est un arbre d'allure majestueuse et imposante pouvant atteindre une hauteur de 30 à 40 mètres ; son port, bien que présentant souvent une cime tabulaire à l'âge adulte, est plus longiligne que celui de Cedrus libani ; sa longévité est importante (500-600 ans, parfois beaucoup plus dans les conditions propices)[précision nécessaire].
-Il se distingue des autres espèces de cèdres par ses rameaux dressés, ses aiguilles courtes (de 2 ou 2,5 cm de longueur en général[2]), peu pointues et persistantes.
+Il se distingue des autres espèces de cèdres par ses rameaux dressés, ses aiguilles courtes (de 2 ou 2,5 cm de longueur en général), peu pointues et persistantes.
 Le cèdre est une espèce monoïque, certaines branches portant des cônes mâles, d'autres des cônes femelles. 
 L'anthèse a lieu en début d'automne, période où les cones mâles, qui mesurent 3 à 4 cm de longueur pour un diamètre de 1cm, libèrent une quantité conséquente de pollen, de couleur jaunâtre.
-Les cônes femelles, qui ne commencent à apparaitre qu'après 45-50 ans, sont dressés verticalement. Ils sont jaune rougeâtre et ont un sommet aplati. Ils sont plus petits en moyenne que ceux du cèdre du Liban : ils mesurent de 5 à 7 cm de longueur contre 8 à 10 cm pour ce dernier[2]. Leurs écailles sont bordées d'un liseré brun. Ils ont besoin de 3 ans pour arriver à maturité et s’ouvrent courant mars pour libérer leurs graines, disséminées par anémochorie . Ils contiennent des graines triangulaires munies d'une ailette de 20 mm dont le taux de viabilité est inférieur à 20% ; les graines proches du sommet du cône sont atrophiées.
-Les variétés
-Le cèdre de l'Atlas présente plusieurs variétés locales, différentes par la taille, l'aspect, et surtout par la couleur, le Cedrus atlantica 'Glauca', d'une couleur bleuâtre à turquoise étant peut-être le plus beau et le plus pittoresque.
+Les cônes femelles, qui ne commencent à apparaitre qu'après 45-50 ans, sont dressés verticalement. Ils sont jaune rougeâtre et ont un sommet aplati. Ils sont plus petits en moyenne que ceux du cèdre du Liban : ils mesurent de 5 à 7 cm de longueur contre 8 à 10 cm pour ce dernier. Leurs écailles sont bordées d'un liseré brun. Ils ont besoin de 3 ans pour arriver à maturité et s’ouvrent courant mars pour libérer leurs graines, disséminées par anémochorie . Ils contiennent des graines triangulaires munies d'une ailette de 20 mm dont le taux de viabilité est inférieur à 20% ; les graines proches du sommet du cône sont atrophiées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cedrus_atlantica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cedrus_atlantica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cèdre de l'Atlas présente plusieurs variétés locales, différentes par la taille, l'aspect, et surtout par la couleur, le Cedrus atlantica 'Glauca', d'une couleur bleuâtre à turquoise étant peut-être le plus beau et le plus pittoresque.
 Cèdre de l'Atlas (Cedrus atlantica), l'espèce d'origine ;
 Cèdre de l'Atlas doré (Cedrus atlantica 'Aurea') ;
 Cèdre de l'Atlas fastigié (Cedrus atlantica 'Fastigiata') ;
